--- a/other/ProgressTrackingSheet with burndownchart.xlsx
+++ b/other/ProgressTrackingSheet with burndownchart.xlsx
@@ -983,11 +983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1977833648"/>
-        <c:axId val="1977840176"/>
+        <c:axId val="-1710322528"/>
+        <c:axId val="-1710333952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1977833648"/>
+        <c:axId val="-1710322528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1977840176"/>
+        <c:crossAx val="-1710333952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1094,7 +1094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1977840176"/>
+        <c:axId val="-1710333952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1977833648"/>
+        <c:crossAx val="-1710322528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2579,7 +2579,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
